--- a/doc/EntityDefinition.xlsx
+++ b/doc/EntityDefinition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>fishing net</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>grain</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1121,186 +1127,196 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>93</v>
       </c>
     </row>
